--- a/analyzer/results/arrays/finals.xlsx
+++ b/analyzer/results/arrays/finals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\analyzer\results\arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCD99F-1F51-4B10-A0F4-9AC29794C267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BF17D-7D95-431F-A020-3EB3C793EC87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="192">
   <si>
     <t>Owner</t>
   </si>
@@ -575,6 +575,36 @@
   </si>
   <si>
     <t>NO_FIELDS</t>
+  </si>
+  <si>
+    <t>Never modified</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>Effectively immutable</t>
+  </si>
+  <si>
+    <t>Internal use only</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Zero-sized</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>after initialization (not even modified outside of class or package, e.g. after being returned)</t>
+  </si>
+  <si>
+    <t>Stable annotation</t>
   </si>
 </sst>
 </file>
@@ -892,15 +922,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,8 +947,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -921,362 +964,560 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -1284,683 +1525,1071 @@
       <c r="C35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>97</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B75" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C75" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
         <v>27</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>34</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
         <v>158</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C93" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C95">
+    <sortCondition ref="A2:A95"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54991A55-AB05-4E4A-A1FD-9D558C1CF0F4}">
+          <x14:formula1>
+            <xm:f>reason!$A$1:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:E95</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF05AED-3A1F-4324-98B1-C1EBE958692B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1970,8 +2599,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -1981,75 +2616,132 @@
       <c r="C2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1286EA9C-2BEF-4D25-B51B-F90B9013FA6E}">
+          <x14:formula1>
+            <xm:f>reason!$A$1:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2067,15 +2759,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB808A-7698-4D0F-8D7C-C09CD4DEF192}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2085,8 +2784,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -2096,20 +2801,78 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD6DEAE3-C7EB-4563-BDE3-7048822D6643}">
+          <x14:formula1>
+            <xm:f>reason!$A$1:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B95206-9FAA-4D48-AAF4-D8F473BBA034}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analyzer/results/arrays/finals.xlsx
+++ b/analyzer/results/arrays/finals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\analyzer\results\arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BF17D-7D95-431F-A020-3EB3C793EC87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7235A-673E-440E-A28C-66D544EBD856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,47 +956,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>182</v>
@@ -1007,58 +1007,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>182</v>
@@ -1092,30 +1092,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>182</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>182</v>
@@ -1143,251 +1143,251 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>182</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>182</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>182</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>182</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>182</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>182</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>182</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>182</v>
@@ -1517,47 +1517,47 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
         <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
         <v>182</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>182</v>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
         <v>182</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>182</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>182</v>
@@ -1636,30 +1636,30 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
         <v>182</v>
@@ -1670,13 +1670,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
         <v>182</v>
@@ -1687,30 +1687,30 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>182</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
         <v>182</v>
@@ -1738,64 +1738,64 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
         <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
         <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
         <v>182</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
         <v>182</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
         <v>182</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>182</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
         <v>182</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
         <v>182</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>182</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>182</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
         <v>182</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
         <v>182</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
         <v>182</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
         <v>182</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>182</v>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
         <v>182</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>182</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>182</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
         <v>182</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
         <v>182</v>
@@ -2112,13 +2112,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
         <v>182</v>
@@ -2129,30 +2129,30 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
         <v>182</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
         <v>182</v>
@@ -2180,30 +2180,30 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
         <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
         <v>182</v>
@@ -2214,109 +2214,109 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
         <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
         <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
         <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
         <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
         <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
@@ -2333,228 +2333,229 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
         <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
         <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
         <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C95">
-    <sortCondition ref="A2:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E95">
+    <sortCondition ref="D2:D95"/>
+    <sortCondition ref="E2:E95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/analyzer/results/arrays/finals.xlsx
+++ b/analyzer/results/arrays/finals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\analyzer\results\arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7235A-673E-440E-A28C-66D544EBD856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF440C-0BEF-430D-9724-4DB53181CD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E95"/>
     </sheetView>
   </sheetViews>
@@ -2762,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB808A-7698-4D0F-8D7C-C09CD4DEF192}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
